--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F400369-A8C5-4FDF-823D-52C8347576F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37DA2CF-E203-40B0-9F27-B08DDBC5536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,12 +437,13 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +495,7 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>45251</v>
       </c>
       <c r="F2">
@@ -531,11 +533,14 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>45252</v>
+      <c r="D3" s="2">
+        <v>45282</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45301</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -557,8 +562,8 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>45253</v>
+      <c r="D4" s="2">
+        <v>45251</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -580,7 +585,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>45251</v>
       </c>
       <c r="F5">
@@ -603,8 +608,8 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>45252</v>
+      <c r="D6" s="2">
+        <v>45251</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -626,8 +631,8 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>45253</v>
+      <c r="D7" s="2">
+        <v>45251</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -649,7 +654,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>45251</v>
       </c>
       <c r="F8">
@@ -672,8 +677,8 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>45252</v>
+      <c r="D9" s="2">
+        <v>45251</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -695,8 +700,8 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>45253</v>
+      <c r="D10" s="2">
+        <v>45251</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -718,7 +723,7 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>45251</v>
       </c>
       <c r="F11">
@@ -741,8 +746,8 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
-        <v>45252</v>
+      <c r="D12" s="2">
+        <v>45251</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -764,8 +769,8 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>45253</v>
+      <c r="D13" s="2">
+        <v>45251</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -779,5 +784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37DA2CF-E203-40B0-9F27-B08DDBC5536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612E087-3C6D-47C2-BB3C-1161845ABD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,13 +437,13 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,7 +537,7 @@
         <v>45282</v>
       </c>
       <c r="E3" s="2">
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612E087-3C6D-47C2-BB3C-1161845ABD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC856D0-41FC-4D03-A43C-2B32C57EB4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>From</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>19:00:00</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>BLG</t>
+  </si>
+  <si>
+    <t>SPN</t>
   </si>
 </sst>
 </file>
@@ -434,356 +443,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45265</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45283</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45282</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45303</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="M3">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45291</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45251</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13">
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC856D0-41FC-4D03-A43C-2B32C57EB4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5961E8-FB5F-45AE-A649-B88477D8209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,12 +446,13 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -629,5 +630,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5961E8-FB5F-45AE-A649-B88477D8209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659DA10-1295-4647-8BEB-53F4B2C57E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>From</t>
   </si>
@@ -76,25 +76,16 @@
     <t>Trip.com </t>
   </si>
   <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
     <t>LIS</t>
   </si>
   <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
     <t>BLN</t>
-  </si>
-  <si>
-    <t>19:00:00</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>BLG</t>
-  </si>
-  <si>
-    <t>SPN</t>
   </si>
 </sst>
 </file>
@@ -443,16 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -501,7 +491,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>45265</v>
+        <v>45323</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45332</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -536,8 +529,9 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>45283</v>
-      </c>
+        <v>45261</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -545,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -556,16 +550,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>45292</v>
+        <v>45291</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45298</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -573,19 +570,20 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>45323</v>
-      </c>
+        <v>45250</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -593,43 +591,23 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44927</v>
-      </c>
+        <v>45240</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45291</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659DA10-1295-4647-8BEB-53F4B2C57E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EEFEB-97CF-4CC0-AE83-8A621D5C4B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Provider</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>FRA</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>BLN</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -437,12 +437,13 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -480,15 +481,15 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>45323</v>
@@ -500,22 +501,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>70</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -523,10 +524,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>45261</v>
@@ -536,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -544,10 +545,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>45291</v>
@@ -559,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -567,10 +568,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>45250</v>
@@ -580,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -588,10 +589,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>45240</v>
@@ -601,13 +602,14 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EEFEB-97CF-4CC0-AE83-8A621D5C4B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736D8D8-6DE6-4A22-ACB0-B89428F179D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>From</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Provider</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>FRA</t>
   </si>
   <si>
@@ -73,19 +76,52 @@
     <t>Trip.com </t>
   </si>
   <si>
-    <t>UKR</t>
+    <t>LIS</t>
   </si>
   <si>
     <t>19:00:00</t>
   </si>
   <si>
-    <t>LIS</t>
-  </si>
-  <si>
-    <t>BLN</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>$116</t>
+  </si>
+  <si>
+    <t>8:40 pm</t>
+  </si>
+  <si>
+    <t>10:50 pm</t>
+  </si>
+  <si>
+    <t>eDreams</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>$169</t>
+  </si>
+  <si>
+    <t>7:05 pm</t>
+  </si>
+  <si>
+    <t>7:55 pm</t>
+  </si>
+  <si>
+    <t>British Airways</t>
+  </si>
+  <si>
+    <t>Orbitz</t>
+  </si>
+  <si>
+    <t>$73</t>
+  </si>
+  <si>
+    <t>8:00 pm</t>
+  </si>
+  <si>
+    <t>8:45 pm</t>
+  </si>
+  <si>
+    <t>$70</t>
   </si>
 </sst>
 </file>
@@ -126,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -434,16 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -453,10 +491,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -481,42 +519,42 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>45323</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>45332</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -524,43 +562,72 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
         <v>45261</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45298</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45298</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -568,48 +635,40 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
         <v>45250</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
       </c>
       <c r="L5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45240</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736D8D8-6DE6-4A22-ACB0-B89428F179D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10B2A42-8AD0-4C59-9D8D-C719324BE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>From</t>
   </si>
@@ -82,43 +82,7 @@
     <t>19:00:00</t>
   </si>
   <si>
-    <t>$116</t>
-  </si>
-  <si>
-    <t>8:40 pm</t>
-  </si>
-  <si>
-    <t>10:50 pm</t>
-  </si>
-  <si>
-    <t>eDreams</t>
-  </si>
-  <si>
     <t>LON</t>
-  </si>
-  <si>
-    <t>$169</t>
-  </si>
-  <si>
-    <t>7:05 pm</t>
-  </si>
-  <si>
-    <t>7:55 pm</t>
-  </si>
-  <si>
-    <t>British Airways</t>
-  </si>
-  <si>
-    <t>Orbitz</t>
-  </si>
-  <si>
-    <t>$73</t>
-  </si>
-  <si>
-    <t>8:00 pm</t>
-  </si>
-  <si>
-    <t>8:45 pm</t>
   </si>
   <si>
     <t>$70</t>
@@ -476,7 +440,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -576,23 +540,8 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -600,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>45291</v>
@@ -614,23 +563,8 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -649,23 +583,8 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10B2A42-8AD0-4C59-9D8D-C719324BE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888BE29-8EF2-4BC4-AA27-10F2065F8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="41">
   <si>
     <t>From</t>
   </si>
@@ -58,34 +58,91 @@
     <t>Status</t>
   </si>
   <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>LHR</t>
+    <t>ZRH</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>BGO</t>
+  </si>
+  <si>
+    <t>KEF</t>
+  </si>
+  <si>
+    <t>ORK</t>
+  </si>
+  <si>
+    <t>DUB</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>TOS</t>
+  </si>
+  <si>
+    <t>BOD</t>
+  </si>
+  <si>
+    <t>BIQ</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SCQ</t>
+  </si>
+  <si>
+    <t>OPO</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>FAO</t>
+  </si>
+  <si>
+    <t>FNC</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>TFS</t>
+  </si>
+  <si>
+    <t>LPA</t>
+  </si>
+  <si>
+    <t>FUE</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>AGA</t>
+  </si>
+  <si>
+    <t>RAK</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>BVC</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>EDI</t>
   </si>
   <si>
     <t>17:00:00</t>
-  </si>
-  <si>
-    <t>17:45:00</t>
-  </si>
-  <si>
-    <t>Lufthansa</t>
-  </si>
-  <si>
-    <t>Trip.com </t>
-  </si>
-  <si>
-    <t>LIS</t>
-  </si>
-  <si>
-    <t>19:00:00</t>
-  </si>
-  <si>
-    <t>LON</t>
-  </si>
-  <si>
-    <t>$70</t>
   </si>
 </sst>
 </file>
@@ -437,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +551,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>45323</v>
+        <v>45226</v>
       </c>
       <c r="D2" s="3">
-        <v>45332</v>
+        <v>45228</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -505,23 +562,8 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -529,16 +571,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>45261</v>
+        <v>45226</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45228</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -549,19 +594,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45291</v>
+        <v>45226</v>
       </c>
       <c r="D4" s="3">
-        <v>45298</v>
+        <v>45228</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -572,18 +617,2512 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>45250</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C26" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="L5">
+      <c r="C28" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45226</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>40</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>40</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>40</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>40</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>40</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>40</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>40</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>40</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>40</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>40</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>40</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>40</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>40</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>40</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>40</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>40</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>40</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>40</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>40</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>40</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="3">
+        <v>45228</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>40</v>
+      </c>
+      <c r="L124">
         <v>0</v>
       </c>
     </row>

--- a/Resources/Book1.xlsx
+++ b/Resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888BE29-8EF2-4BC4-AA27-10F2065F8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7BD027-FCD3-4DAE-9AF7-F96EC84DC8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -622,9 +622,6 @@
       <c r="C5" s="3">
         <v>45226</v>
       </c>
-      <c r="D5" s="3">
-        <v>45228</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -632,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -668,9 +665,6 @@
       <c r="C7" s="3">
         <v>45226</v>
       </c>
-      <c r="D7" s="3">
-        <v>45228</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -678,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -701,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,9 +708,6 @@
       <c r="C9" s="3">
         <v>45226</v>
       </c>
-      <c r="D9" s="3">
-        <v>45228</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -724,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -747,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -770,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -793,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -816,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -839,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -862,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -885,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -908,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -931,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -954,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -977,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1000,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1023,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1046,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1069,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1138,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1161,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1184,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1207,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1253,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1276,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1299,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1345,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1391,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1414,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1437,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1460,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1483,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1523,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1543,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1563,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1583,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1603,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1623,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1643,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -1663,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -1683,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -1703,7 +1694,7 @@
         <v>14</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -1763,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -1783,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -1803,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -1823,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -1843,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -1903,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -1943,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
